--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\nikola\projects\ExcelExport\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\projects\ExcelExport\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1EA1FA-078C-4EAD-88C2-DC02075A8288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217AE96C-DF6D-4229-8071-95C58C85EFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Второй лист" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Первое</t>
   </si>
@@ -91,6 +92,9 @@
   </si>
   <si>
     <t>Стиль 6</t>
+  </si>
+  <si>
+    <t>____</t>
   </si>
 </sst>
 </file>
@@ -678,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -792,4 +796,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4716FB19-FFE4-4F6F-B950-0ADE59946F4F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>